--- a/biology/Histoire de la zoologie et de la botanique/Reinhold_Ferdinand_Sahlberg/Reinhold_Ferdinand_Sahlberg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Reinhold_Ferdinand_Sahlberg/Reinhold_Ferdinand_Sahlberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reinhold Ferdinand Sahlberg, né le 23 décembre 1811 à Åbo (grand-duché de Finlande) et mort le 18 mars 1874 à Yläne, est un médecin suédois de Finlande, sujet de l'Empire russe, qui fut explorateur et spécialiste d'histoire naturelle, notamment dans le domaine de l'entomologie. C'était le fils de l'entomologiste et botaniste Carl Reinhold Sahlberg (1774-1860) et le père de l'entomologiste et explorateur Johan Reinhold Sahlberg (1845-1920).
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il entre à l'âge de seize ans en 1827 à l'université impériale Alexandre d'Helsingfors nouvellement installée où enseigne son père. Il reçoit son grade de magister en 1836 et son titre de docteur en médecine en 1840. Entre 1839 et 1843, il participe à une expédition autour du monde de naturalistes qui passe par le Brésil, le Chili et jusqu'à Sitka en Alaska, puis rentre par la Sibérie.
 Entre 1845 et 1852, il travaille comme assistant de zoologie et de botanique à l'université d'Helsingfors. Il repart en 1849-1851 pour le Brésil.
@@ -544,7 +558,9 @@
           <t>Ouvrages de R. F. Sahlberg</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sahlberg, R.F., 1834. Dissertatio academica novas Coleopterorum Fennicorum species sistens, 12 pp, lire en ligne
 Sahlberg, R.F., 1848. Monographia Geocorisarum Fenniae. Franckelliana, Helsingforsiae, 154 pp.</t>
@@ -575,9 +591,11 @@
           <t>Taxons décrits par R. F. Sahlberg</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R. F. Sahlberg a notamment décrit les taxons suivants[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R. F. Sahlberg a notamment décrit les taxons suivants :
 Coleoptera, Aderidae
 Phytobaenus R.F. Sahlberg, 1834
 Phytobaenus amabilis R.F. Sahlberg, 1834
